--- a/biology/Virologie/Alerte_!/Alerte_!.xlsx
+++ b/biology/Virologie/Alerte_!/Alerte_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alerte ! ou L'Épidémie au Québec (Outbreak) est un film catastrophe américain co-produit et réalisé par Wolfgang Petersen, sorti en 1995.
-Un virus hémorragique mortel, le virus Motaba, est introduit en Californie par un singe importé du Zaïre, se propage à la vitesse de l'éclair dans la ville de Cedar Creek[1], menaçant ainsi le continent américain. Premier à pressentir le terrible danger, le colonel Sam Daniels se démène pour empêcher que ce virus anéantisse la totalité de la population, tandis que l'armée se prépare à raser la petite ville.
+Un virus hémorragique mortel, le virus Motaba, est introduit en Californie par un singe importé du Zaïre, se propage à la vitesse de l'éclair dans la ville de Cedar Creek, menaçant ainsi le continent américain. Premier à pressentir le terrible danger, le colonel Sam Daniels se démène pour empêcher que ce virus anéantisse la totalité de la population, tandis que l'armée se prépare à raser la petite ville.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En juillet 1967, des combats font rage autour d'un camp de mercenaires du Congo-Kinshasa. Billy Ford et McClintock — membres de l'armée des États-Unis — arrivent à bord d'un hélicoptère en combinaison médicale étanche. Un personnel médical du camp leur décrit une maladie foudroyante. Ils effectuent un prélèvement sanguin sur un malade, alité avec de nombreux autres combattants portant tous les traces d'une maladie. Ils repartent très vite. Un peu plus tard, un avion largue une bombe au-dessus du camp, qui se trouve totalement détruit.
 En 1995, deux scientifiques travaillent pour le USAMRIID (en) (institut de recherche de l'armée des États-Unis spécialisé dans les armes biologiques) : le colonel Sam Daniels et Casey Schuler. Ils sont envoyés par leur supérieur — le général Billy Ford — au Zaïre. Ils arrivent dans un village où quasiment tout le monde est mort à cause d'une maladie transmissible. Ils apprennent que la maladie ne se transmet pas par l'air, et que c'est l'eau du puits du village qui a été le vecteur de transmission. Ils rapportent des échantillons.
@@ -552,7 +566,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Outbreak
@@ -606,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dustin Hoffman (VF : Mario Santini) (VQ : Jean-Marie Moncelet) : Dr colonel Sam Daniels, médecin militaire et virologue
 Rene Russo (VF : Véronique Augereau) (VQ : Hélène Mondoux) : Dr Roberta « Robby » Keough, virologue
@@ -625,7 +643,7 @@
 Bruce Jarchow : Dr Mascelli
 Leland Hayward III (VF : Éric Missoffe) : Henry Seward
 Daniel Chodos : Rudy Alvarez
-Sources et légendes: version française (VF) sur AlloDoublage[2], version québécoise (VQ) sur Doublage Québec[3]
+Sources et légendes: version française (VF) sur AlloDoublage, version québécoise (VQ) sur Doublage Québec
 </t>
         </is>
       </c>
@@ -656,12 +674,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement
-Alerte ! faillit connaître une rivalité avec un film similaire. Il était prévu de tourner The Hot Zone par Ridley Scott pour 20th Century Fox, basé sur un article de Richard Preston pour The New Yorker, racontant comment l'armée américaine contint la propagation du virus Ebola. Pour l'achat des droits d'auteurs, Lynda Obst de la Fox remporte le marché face à Arnold Kopelson de Warner Bros. Kopelson développa l'histoire d'une pandémie de son côté, arguant que l'intrigue est dans le domaine public. The Hot Zone devait inclure un parti-pris plus macabre. Mais Alerte ! est plus rapidement mis en chantier quand The Hot Zone est victime de divergences scénaristiques entre la Fox, Scott, le scénariste James V. Hart et les deux acteurs devant porter le projet, Robert Redford et Jodie Foster. Finalement, après 45 millions $ dépensés en pré-production et les décors conçus, la Fox annule The Hot Zone en août 1994. Il semble que les deux films profitèrent des fuites du script du concurrent[4].
-Attribution des rôles
-Harrison Ford s'est vu proposé dans le rôle de Sam Daniels mais l'a refusé[5], de même que Sylvester Stallone et Mel Gibson qui l'ont rejeté[6].
-Tournage
-Le tournage a lieu en Californie (Ferndale, Arcata, Eureka, Pasadena, ainsi qu'aux studios de Warner Bros. à Los Angeles) et à Hawaï (île de Kauai), entre le 24 juillet et le 16 décembre 1994[7].
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alerte ! faillit connaître une rivalité avec un film similaire. Il était prévu de tourner The Hot Zone par Ridley Scott pour 20th Century Fox, basé sur un article de Richard Preston pour The New Yorker, racontant comment l'armée américaine contint la propagation du virus Ebola. Pour l'achat des droits d'auteurs, Lynda Obst de la Fox remporte le marché face à Arnold Kopelson de Warner Bros. Kopelson développa l'histoire d'une pandémie de son côté, arguant que l'intrigue est dans le domaine public. The Hot Zone devait inclure un parti-pris plus macabre. Mais Alerte ! est plus rapidement mis en chantier quand The Hot Zone est victime de divergences scénaristiques entre la Fox, Scott, le scénariste James V. Hart et les deux acteurs devant porter le projet, Robert Redford et Jodie Foster. Finalement, après 45 millions $ dépensés en pré-production et les décors conçus, la Fox annule The Hot Zone en août 1994. Il semble que les deux films profitèrent des fuites du script du concurrent.
 </t>
         </is>
       </c>
@@ -687,10 +706,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harrison Ford s'est vu proposé dans le rôle de Sam Daniels mais l'a refusé, de même que Sylvester Stallone et Mel Gibson qui l'ont rejeté.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -713,10 +743,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Californie (Ferndale, Arcata, Eureka, Pasadena, ainsi qu'aux studios de Warner Bros. à Los Angeles) et à Hawaï (île de Kauai), entre le 24 juillet et le 16 décembre 1994.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alerte_!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alerte_!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alerte_!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alerte_!</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus fictif du film « Motaba », est inspiré du virus Ebola, en beaucoup plus rapide. La production et la recherche médicale sont également trop rapides pour la crédibilité du film. Le film a eu d'autant plus de retentissement qu'en 1995, il y a eu une nouvelle épidémie d'Ebola à Kikwit, en République démocratique du Congo[réf. nécessaire].
 Une autre incohérence présente les porteurs du virus comme étant des singes capucins alors qu'ils sont originaires d'Amérique et non d'Afrique.
